--- a/ML/ML_files/2014_JUNE.xlsx
+++ b/ML/ML_files/2014_JUNE.xlsx
@@ -613,7 +613,7 @@
         <v>8630</v>
       </c>
       <c r="D5">
-        <v>131.1703360370799</v>
+        <v>131.17033603708</v>
       </c>
       <c r="E5">
         <v>3480</v>
@@ -665,7 +665,7 @@
         <v>21327</v>
       </c>
       <c r="D6">
-        <v>120.9921695503352</v>
+        <v>120.9921695503353</v>
       </c>
       <c r="E6">
         <v>393</v>
@@ -949,7 +949,7 @@
         <v>406571</v>
       </c>
       <c r="M11">
-        <v>46.08690732983906</v>
+        <v>46.08690732983907</v>
       </c>
       <c r="N11">
         <v>180</v>
@@ -1130,7 +1130,7 @@
         <v>10597</v>
       </c>
       <c r="D15">
-        <v>103.6047938095687</v>
+        <v>103.6047938095688</v>
       </c>
       <c r="E15">
         <v>1844</v>
@@ -1384,7 +1384,7 @@
         <v>241247</v>
       </c>
       <c r="D20">
-        <v>75.93130691780622</v>
+        <v>75.93130691780623</v>
       </c>
       <c r="E20">
         <v>50208</v>
@@ -1454,7 +1454,7 @@
         <v>39659</v>
       </c>
       <c r="J21">
-        <v>100.2672785496356</v>
+        <v>100.2672785496357</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>27811</v>
       </c>
       <c r="M25">
-        <v>114.875409010823</v>
+        <v>114.8754090108231</v>
       </c>
       <c r="N25">
         <v>31</v>
@@ -1723,7 +1723,7 @@
         <v>32983</v>
       </c>
       <c r="M26">
-        <v>103.1773944153048</v>
+        <v>103.1773944153049</v>
       </c>
       <c r="N26">
         <v>33</v>
@@ -1928,7 +1928,7 @@
         <v>14671</v>
       </c>
       <c r="M30">
-        <v>11.26712562197532</v>
+        <v>11.26712562197533</v>
       </c>
       <c r="N30">
         <v>135</v>
@@ -2005,7 +2005,7 @@
         <v>696</v>
       </c>
       <c r="D32">
-        <v>114.7988505747126</v>
+        <v>114.7988505747127</v>
       </c>
       <c r="E32">
         <v>130</v>
@@ -2075,7 +2075,7 @@
         <v>41928</v>
       </c>
       <c r="J33">
-        <v>4.240602938370539</v>
+        <v>4.24060293837054</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2650,7 +2650,7 @@
         <v>151741</v>
       </c>
       <c r="M44">
-        <v>32.0308947482882</v>
+        <v>32.03089474828821</v>
       </c>
       <c r="N44">
         <v>65</v>
@@ -2944,7 +2944,7 @@
         <v>42919</v>
       </c>
       <c r="G50">
-        <v>148.9270486264824</v>
+        <v>148.9270486264825</v>
       </c>
       <c r="H50">
         <v>272399</v>
@@ -4177,7 +4177,7 @@
         <v>23121</v>
       </c>
       <c r="J74">
-        <v>59.29241814800397</v>
+        <v>59.29241814800398</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -4590,7 +4590,7 @@
         <v>16028</v>
       </c>
       <c r="J82">
-        <v>160.1946593461442</v>
+        <v>160.1946593461443</v>
       </c>
       <c r="K82">
         <v>10266</v>
@@ -5899,7 +5899,7 @@
         <v>2017808</v>
       </c>
       <c r="M107">
-        <v>134.8765095588876</v>
+        <v>134.8765095588877</v>
       </c>
       <c r="N107">
         <v>257</v>
@@ -6062,7 +6062,7 @@
         <v>5606686</v>
       </c>
       <c r="M111">
-        <v>102.2306225103385</v>
+        <v>102.2306225103386</v>
       </c>
       <c r="N111">
         <v>83</v>
@@ -6105,7 +6105,7 @@
         <v>554363</v>
       </c>
       <c r="J112">
-        <v>75.67514426467856</v>
+        <v>75.67514426467857</v>
       </c>
       <c r="K112">
         <v>236289</v>
@@ -6543,7 +6543,7 @@
         <v>713260</v>
       </c>
       <c r="J121">
-        <v>148.5029302077783</v>
+        <v>148.5029302077784</v>
       </c>
       <c r="N121">
         <v>134</v>
@@ -7183,7 +7183,7 @@
         <v>165779</v>
       </c>
       <c r="G134">
-        <v>130.3832210352336</v>
+        <v>130.3832210352337</v>
       </c>
       <c r="H134">
         <v>1018940</v>
@@ -7816,7 +7816,7 @@
         <v>26702</v>
       </c>
       <c r="J146">
-        <v>80.05767358250318</v>
+        <v>80.05767358250319</v>
       </c>
       <c r="K146">
         <v>0</v>
@@ -8208,7 +8208,7 @@
         <v>39080</v>
       </c>
       <c r="D154">
-        <v>79.83623336745138</v>
+        <v>79.83623336745139</v>
       </c>
       <c r="E154">
         <v>5000</v>
@@ -8260,7 +8260,7 @@
         <v>2408</v>
       </c>
       <c r="D155">
-        <v>729.485049833887</v>
+        <v>729.4850498338871</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -8278,7 +8278,7 @@
         <v>2408</v>
       </c>
       <c r="J155">
-        <v>729.485049833887</v>
+        <v>729.4850498338871</v>
       </c>
       <c r="K155">
         <v>1756</v>
@@ -9576,7 +9576,7 @@
         <v>27148</v>
       </c>
       <c r="D184">
-        <v>58.18108147929865</v>
+        <v>58.18108147929866</v>
       </c>
       <c r="E184">
         <v>11971</v>
@@ -9903,7 +9903,7 @@
         <v>17099</v>
       </c>
       <c r="J190">
-        <v>145.3535294461664</v>
+        <v>145.3535294461665</v>
       </c>
       <c r="K190">
         <v>6022</v>
@@ -10102,7 +10102,7 @@
         <v>121094</v>
       </c>
       <c r="G194">
-        <v>130.5721175285315</v>
+        <v>130.5721175285316</v>
       </c>
       <c r="H194">
         <v>460530</v>
@@ -10570,7 +10570,7 @@
         <v>32180</v>
       </c>
       <c r="G203">
-        <v>131.4853946550652</v>
+        <v>131.4853946550653</v>
       </c>
       <c r="H203">
         <v>140098</v>
@@ -10631,7 +10631,7 @@
         <v>50095</v>
       </c>
       <c r="J204">
-        <v>84.77293143028245</v>
+        <v>84.77293143028246</v>
       </c>
       <c r="K204">
         <v>0</v>
